--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37040" windowHeight="24540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="258">
   <si>
     <t>Reference</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>296-21931-1-ND</t>
+  </si>
+  <si>
+    <t>IC10, IC11</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>128</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>128</v>
@@ -2176,7 +2179,7 @@
     </row>
     <row r="19" spans="1:13" ht="30">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>128</v>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
-    <sheet name="Cost Estimator" sheetId="5" r:id="rId2"/>
-    <sheet name="Stats" sheetId="7" r:id="rId3"/>
-    <sheet name="SandSquid1" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="14" r:id="rId5"/>
-    <sheet name="Manufacturing" sheetId="15" r:id="rId6"/>
-    <sheet name="Place" sheetId="16" r:id="rId7"/>
+    <sheet name="BOM Extras" sheetId="17" r:id="rId2"/>
+    <sheet name="Cost Estimator" sheetId="5" r:id="rId3"/>
+    <sheet name="Stats" sheetId="7" r:id="rId4"/>
+    <sheet name="SandSquid1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId6"/>
+    <sheet name="Manufacturing" sheetId="15" r:id="rId7"/>
+    <sheet name="Place" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="ADS1299_shield_1.0_final" localSheetId="3">SandSquid1!$A$1:$D$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Place!$A$1:$K$19</definedName>
+    <definedName name="ADS1299_shield_1.0_final" localSheetId="4">SandSquid1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Place!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="259">
   <si>
     <t>Reference</t>
   </si>
@@ -817,9 +818,6 @@
     <t>C7,C9,C11,C13,C15,C18,C19,C21,C22,C23,C26,C29,C30,C32,C50,C51,C52,C54,C56,C58,C60,C61,C65,C68,C70,C72</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/S3B-PH-SM4-TB(LF)(SN)/455-1750-1-ND/926847</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/MLZ2012A3R3W/445-6394-1-ND/2465720</t>
   </si>
   <si>
@@ -836,6 +834,12 @@
   </si>
   <si>
     <t>IC10, IC11</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?vendor=0&amp;keywords=%09455-1720-ND</t>
+  </si>
+  <si>
+    <t>JST_3PIN - PH Series - through hole, right angle</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1516,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1825,7 +1829,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>128</v>
@@ -1870,10 +1874,10 @@
         <v>166</v>
       </c>
       <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" t="s">
-        <v>256</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1886,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2105,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2171,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -2825,6 +2829,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
+    <col min="11" max="12" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9" s="9"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20"/>
+      <c r="D20"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="D21"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="D22"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="D23"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="D24"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="D25"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="D26"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="D27"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="D32"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="D33"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3095,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3189,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3494,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -3883,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3996,7 +4237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37040" windowHeight="24540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet4" sheetId="14" r:id="rId6"/>
     <sheet name="Manufacturing" sheetId="15" r:id="rId7"/>
     <sheet name="Place" sheetId="16" r:id="rId8"/>
+    <sheet name="Digikey" sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="ADS1299_shield_1.0_final" localSheetId="4">SandSquid1!$A$1:$D$25</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="270">
   <si>
     <t>Reference</t>
   </si>
@@ -389,9 +390,6 @@
     <t>24AA256UID-I/SN - SOIC-8 Serial EEPROM</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/24AA256UID-I%2FSN/24AA256UID-I%2FSN-ND/4439784?WT.z_cid=ref_octopart_dkc_buynow</t>
-  </si>
-  <si>
     <t>296-13418-1-ND</t>
   </si>
   <si>
@@ -840,6 +838,42 @@
   </si>
   <si>
     <t>JST_3PIN - PH Series - through hole, right angle</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>4UCon direct</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/S3B-PH-K-S(LF)(SN)/455-1720-ND/926627</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?x=-1075&amp;y=-74&amp;lang=en&amp;site=us&amp;KeyWords=A26228-ND</t>
+  </si>
+  <si>
+    <t>Jumpers</t>
+  </si>
+  <si>
+    <t>A26228-ND</t>
+  </si>
+  <si>
+    <t>Jumper / Shunt</t>
+  </si>
+  <si>
+    <t>382811-8</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
   </si>
 </sst>
 </file>
@@ -849,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -909,6 +943,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -967,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1041,8 +1080,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1106,8 +1157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1176,6 +1228,18 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1515,8 +1579,1423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I34" si="0">G2*H2</f>
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" t="s">
+        <v>261</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>261</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>261</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>261</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>18689</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19950</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33">
+        <v>19950</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34">
+        <v>18677</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:M37">
+    <sortCondition ref="F2:F37"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M17" r:id="rId2"/>
+    <hyperlink ref="M15" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId5" display="http://www.digikey.com/product-detail/en/LMK325BJ107MM-T/587-1965-1-ND/1646628"/>
+    <hyperlink ref="M20" r:id="rId6"/>
+    <hyperlink ref="M29" r:id="rId7"/>
+    <hyperlink ref="M26" r:id="rId8"/>
+    <hyperlink ref="M27" r:id="rId9"/>
+    <hyperlink ref="M16" r:id="rId10"/>
+    <hyperlink ref="M12" r:id="rId11"/>
+    <hyperlink ref="M7" r:id="rId12"/>
+    <hyperlink ref="M8" r:id="rId13"/>
+    <hyperlink ref="M6" r:id="rId14"/>
+    <hyperlink ref="M11" r:id="rId15"/>
+    <hyperlink ref="M10" r:id="rId16"/>
+    <hyperlink ref="M9" r:id="rId17"/>
+    <hyperlink ref="M30" r:id="rId18"/>
+    <hyperlink ref="M22" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M32" r:id="rId21"/>
+    <hyperlink ref="D4" r:id="rId22"/>
+    <hyperlink ref="D27" r:id="rId23"/>
+    <hyperlink ref="D30:D32" r:id="rId24" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D28" r:id="rId25"/>
+    <hyperlink ref="M25" r:id="rId26"/>
+    <hyperlink ref="M34" r:id="rId27"/>
+    <hyperlink ref="M14" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1536,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>70</v>
@@ -1551,13 +3030,13 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1566,1332 +3045,31 @@
         <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I34" si="0">G2*H2</f>
-        <v>6</v>
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>252</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>217</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15">
-        <v>26</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>258</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30">
-      <c r="A19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>187</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
-        <v>189</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>192</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J29" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>30</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J30" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="2">
-        <v>18689</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="2">
-        <v>19950</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J32" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33">
-        <v>19950</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>36</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J33" t="s">
-        <v>170</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34">
-        <v>18677</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:M37">
-    <sortCondition ref="F2:F37"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M17" r:id="rId2"/>
-    <hyperlink ref="M15" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M3" r:id="rId5" display="http://www.digikey.com/product-detail/en/LMK325BJ107MM-T/587-1965-1-ND/1646628"/>
-    <hyperlink ref="M20" r:id="rId6"/>
-    <hyperlink ref="M18" r:id="rId7"/>
-    <hyperlink ref="M29" r:id="rId8"/>
-    <hyperlink ref="M26" r:id="rId9"/>
-    <hyperlink ref="M27" r:id="rId10"/>
-    <hyperlink ref="M16" r:id="rId11"/>
-    <hyperlink ref="M12" r:id="rId12"/>
-    <hyperlink ref="M7" r:id="rId13"/>
-    <hyperlink ref="M8" r:id="rId14"/>
-    <hyperlink ref="M5" r:id="rId15"/>
-    <hyperlink ref="M6" r:id="rId16"/>
-    <hyperlink ref="M11" r:id="rId17"/>
-    <hyperlink ref="M10" r:id="rId18"/>
-    <hyperlink ref="M9" r:id="rId19"/>
-    <hyperlink ref="M30" r:id="rId20"/>
-    <hyperlink ref="M22" r:id="rId21"/>
-    <hyperlink ref="M21" r:id="rId22"/>
-    <hyperlink ref="M32" r:id="rId23"/>
-    <hyperlink ref="D4" r:id="rId24"/>
-    <hyperlink ref="D27" r:id="rId25"/>
-    <hyperlink ref="D30:D32" r:id="rId26" display="Panasonic Electronic Components"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="M25" r:id="rId28"/>
-    <hyperlink ref="M34" r:id="rId29"/>
-    <hyperlink ref="M14" r:id="rId30"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="46.83203125" customWidth="1"/>
-    <col min="11" max="12" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="M2" s="3"/>
+        <v>264</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="D3"/>
@@ -3095,19 +3273,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" t="s">
         <v>237</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>238</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3192,7 +3370,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3237,7 +3415,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -3257,7 +3435,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
@@ -3282,7 +3460,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -3302,7 +3480,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
@@ -3351,13 +3529,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF(BOM!B2:B37,"=SMT",BOM!G2:G37)</f>
@@ -3366,7 +3544,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="8">
         <f>SUMIF(BOM!B3:B38,"=TH",BOM!G3:G38)</f>
@@ -3379,13 +3557,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -3393,7 +3571,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -3401,7 +3579,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9">
         <f>COUNT(BOM!G2:G37)</f>
@@ -3410,7 +3588,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <f>SUM(BOM!G2:G38)</f>
@@ -3462,7 +3640,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3473,7 +3651,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3484,7 +3662,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -3495,13 +3673,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>197</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3517,7 +3695,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3528,7 +3706,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3545,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3556,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3567,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3578,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3589,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3600,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3611,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3622,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3633,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3644,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3704,13 +3882,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3721,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -3770,10 +3948,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D30" si="0">IF(A3=C3, "equal", "not")</f>
@@ -3806,10 +3984,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -3842,10 +4020,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -3854,10 +4032,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -3866,10 +4044,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -3902,10 +4080,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -3986,10 +4164,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -3998,10 +4176,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -4010,10 +4188,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -4022,10 +4200,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -4070,10 +4248,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -4094,10 +4272,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -4139,20 +4317,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" t="s">
         <v>232</v>
-      </c>
-      <c r="G2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4175,7 +4353,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12">
         <v>650</v>
@@ -4204,7 +4382,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4262,7 +4440,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="23">
       <c r="A1" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="14"/>
@@ -4276,10 +4454,10 @@
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1">
       <c r="A3" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>242</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>0</v>
@@ -4297,7 +4475,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>3</v>
@@ -4314,13 +4492,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>100</v>
@@ -4329,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="30">
@@ -4340,13 +4518,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>106</v>
@@ -4366,16 +4544,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -4392,13 +4570,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>102</v>
@@ -4418,13 +4596,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>104</v>
@@ -4445,13 +4623,13 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="18">
         <v>2</v>
@@ -4468,16 +4646,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
@@ -4494,22 +4672,22 @@
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="18">
         <v>2</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4523,10 +4701,10 @@
         <v>71</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>51</v>
@@ -4543,19 +4721,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" s="18">
         <v>2</v>
@@ -4575,10 +4753,10 @@
         <v>72</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>85</v>
@@ -4595,16 +4773,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>141</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>58</v>
@@ -4621,25 +4799,25 @@
         <v>13</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="15">
         <v>2</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="60">
@@ -4647,16 +4825,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>56</v>
@@ -4679,10 +4857,10 @@
         <v>71</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>99</v>
@@ -4699,16 +4877,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>54</v>
@@ -4731,10 +4909,10 @@
         <v>72</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>82</v>
@@ -4757,10 +4935,10 @@
         <v>71</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>77</v>
@@ -4784,13 +4962,13 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H22" s="15">
         <v>5</v>
@@ -4810,10 +4988,10 @@
         <v>71</v>
       </c>
       <c r="E23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>90</v>
@@ -4836,10 +5014,10 @@
         <v>71</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>94</v>
@@ -4862,10 +5040,10 @@
         <v>71</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>96</v>
@@ -4882,25 +5060,25 @@
         <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="15">
         <v>1</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="18" customFormat="1" ht="45">
@@ -4914,10 +5092,10 @@
         <v>71</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>89</v>
@@ -4938,13 +5116,13 @@
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="H28" s="15">
         <v>1</v>
@@ -4994,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="18" customFormat="1">
@@ -5002,7 +5180,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="18" t="s">
@@ -5015,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -5048,13 +5226,13 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="G33" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="18">
         <v>1</v>
@@ -5072,19 +5250,19 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="15">
         <v>1</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="18" customFormat="1">
@@ -5096,19 +5274,19 @@
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H35" s="18">
         <v>1</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -5120,10 +5298,10 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>86</v>
@@ -5132,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -5160,4 +5338,1110 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
+    <col min="11" max="12" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I29" si="0">G2*H2</f>
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>257</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M16" r:id="rId2"/>
+    <hyperlink ref="M14" r:id="rId3"/>
+    <hyperlink ref="M12" r:id="rId4"/>
+    <hyperlink ref="M3" r:id="rId5" display="http://www.digikey.com/product-detail/en/LMK325BJ107MM-T/587-1965-1-ND/1646628"/>
+    <hyperlink ref="M19" r:id="rId6"/>
+    <hyperlink ref="M17" r:id="rId7"/>
+    <hyperlink ref="M28" r:id="rId8"/>
+    <hyperlink ref="M25" r:id="rId9"/>
+    <hyperlink ref="M26" r:id="rId10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="M11" r:id="rId12"/>
+    <hyperlink ref="M6" r:id="rId13"/>
+    <hyperlink ref="M7" r:id="rId14"/>
+    <hyperlink ref="M5" r:id="rId15"/>
+    <hyperlink ref="M10" r:id="rId16"/>
+    <hyperlink ref="M9" r:id="rId17"/>
+    <hyperlink ref="M8" r:id="rId18"/>
+    <hyperlink ref="M29" r:id="rId19"/>
+    <hyperlink ref="M21" r:id="rId20"/>
+    <hyperlink ref="M20" r:id="rId21"/>
+    <hyperlink ref="D4" r:id="rId22"/>
+    <hyperlink ref="D26" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24" display="Panasonic Electronic Components"/>
+    <hyperlink ref="D27" r:id="rId25"/>
+    <hyperlink ref="M24" r:id="rId26"/>
+    <hyperlink ref="M13" r:id="rId27"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,6 +1015,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,7 +1160,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="86">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1240,6 +1241,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1579,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:N34"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2994,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3234,6 +3236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="19560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -2952,6 +2952,7 @@
   <sortState ref="A2:M37">
     <sortCondition ref="F2:F37"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="M17" r:id="rId2"/>
@@ -4425,7 +4426,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="19560" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16640" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="ADS1299_shield_1.0_final" localSheetId="4">SandSquid1!$A$1:$D$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Place!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$F$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Place!$A$1:$N$38</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -78,9 +79,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>C1,C4,C15</t>
-  </si>
-  <si>
     <t>Capacitor - 2.2uF</t>
   </si>
   <si>
@@ -874,6 +872,9 @@
   </si>
   <si>
     <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>VSOP8</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1007,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1093,8 +1094,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1127,9 +1144,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1159,8 +1173,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="102">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1242,6 +1266,22 @@
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1579,10 +1619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F1" sqref="F1:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1603,60 +1646,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1669,33 +1712,33 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1708,33 +1751,33 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1747,33 +1790,33 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1786,31 +1829,31 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1823,33 +1866,33 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1862,33 +1905,33 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1901,30 +1944,30 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1937,33 +1980,33 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" t="s">
-        <v>254</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1976,33 +2019,33 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" t="s">
+        <v>260</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="K10" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2015,33 +2058,33 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2054,33 +2097,33 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -2093,72 +2136,72 @@
         <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
       <c r="K14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>26</v>
@@ -2171,33 +2214,33 @@
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2210,33 +2253,33 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -2249,30 +2292,30 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>86</v>
+      <c r="E18" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2285,33 +2328,33 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2324,33 +2367,33 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>17</v>
@@ -2363,33 +2406,33 @@
         <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
         <v>156</v>
       </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2402,30 +2445,30 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2438,30 +2481,30 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2474,30 +2517,30 @@
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2510,33 +2553,33 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
         <v>160</v>
       </c>
-      <c r="E25" t="s">
-        <v>161</v>
-      </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2549,111 +2592,111 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="K26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" t="s">
-        <v>261</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" t="s">
-        <v>261</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2666,33 +2709,33 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" t="s">
-        <v>261</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29">
         <v>18</v>
@@ -2705,30 +2748,30 @@
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2741,24 +2784,24 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2">
         <v>18689</v>
@@ -2775,24 +2818,24 @@
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2">
         <v>19950</v>
@@ -2809,24 +2852,24 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>19950</v>
@@ -2842,24 +2885,24 @@
         <v>36</v>
       </c>
       <c r="J33" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="K33" t="s">
-        <v>259</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>18677</v>
@@ -2875,64 +2918,64 @@
         <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" t="s">
-        <v>42</v>
-      </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2984,10 +3027,10 @@
     <hyperlink ref="M14" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
@@ -3018,60 +3061,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="J2" t="s">
         <v>266</v>
       </c>
-      <c r="J2" t="s">
-        <v>267</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3266,7 +3309,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3277,24 +3320,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" t="s">
         <v>236</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>237</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>238</v>
-      </c>
-      <c r="F4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3314,7 +3357,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>76</v>
@@ -3334,7 +3377,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -3354,7 +3397,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3374,7 +3417,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3394,7 +3437,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10">
         <f>SUM(B5:B9)</f>
@@ -3419,7 +3462,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -3439,7 +3482,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
@@ -3464,7 +3507,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -3484,7 +3527,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
@@ -3533,13 +3576,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8">
         <f>SUMIF(BOM!B2:B37,"=SMT",BOM!G2:G37)</f>
@@ -3548,7 +3591,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="8">
         <f>SUMIF(BOM!B3:B38,"=TH",BOM!G3:G38)</f>
@@ -3561,13 +3604,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -3575,7 +3618,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -3583,7 +3626,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <f>COUNT(BOM!G2:G37)</f>
@@ -3592,7 +3635,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10">
         <f>SUM(BOM!G2:G38)</f>
@@ -3644,266 +3687,266 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>196</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>31</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3932,18 +3975,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="str">
         <f>IF(A2=C2, "equal", "not")</f>
@@ -3952,10 +3995,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D30" si="0">IF(A3=C3, "equal", "not")</f>
@@ -3964,10 +4007,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -3976,10 +4019,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3988,10 +4031,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -4000,10 +4043,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -4012,10 +4055,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -4024,10 +4067,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -4036,10 +4079,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -4048,10 +4091,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -4060,10 +4103,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -4072,10 +4115,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -4084,10 +4127,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -4096,10 +4139,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -4108,10 +4151,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -4120,10 +4163,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -4132,10 +4175,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -4144,10 +4187,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -4156,10 +4199,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -4168,10 +4211,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -4180,10 +4223,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -4192,10 +4235,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -4204,10 +4247,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -4216,10 +4259,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -4228,10 +4271,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -4240,10 +4283,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -4252,10 +4295,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -4264,10 +4307,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -4276,10 +4319,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -4321,20 +4364,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
         <v>231</v>
-      </c>
-      <c r="G2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4357,7 +4400,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="12">
         <v>650</v>
@@ -4386,7 +4429,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4427,915 +4470,923 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="10.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="15"/>
-    <col min="5" max="5" width="35.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="10.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="20"/>
+    <col min="5" max="5" width="10.83203125" style="15"/>
+    <col min="6" max="6" width="35.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="23">
-      <c r="A1" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="26"/>
       <c r="C1" s="14"/>
-      <c r="E1" s="28">
-        <v>41634</v>
+      <c r="D1" s="26"/>
+      <c r="F1" s="27">
+        <v>41662</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1">
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="23" customFormat="1">
-      <c r="A3" s="23" t="s">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="21">
+      <c r="J3" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="29" customFormat="1">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="17" customFormat="1">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="29" customFormat="1" ht="30">
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="17" customFormat="1">
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="29" customFormat="1">
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="F8" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="17" customFormat="1">
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="B5" s="22">
-        <v>2</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="21">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1">
-      <c r="B7" s="22">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="21">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1">
-      <c r="B9" s="22">
-        <v>6</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>165</v>
+      <c r="E9" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="18">
-        <v>2</v>
-      </c>
-      <c r="I9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="29" customFormat="1">
+      <c r="B10" s="30">
+        <v>7</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1">
+      <c r="B11" s="21">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="29" customFormat="1" ht="60">
+      <c r="B12" s="30">
+        <v>9</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="30">
+        <v>26</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="45">
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21">
+        <v>17</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="21">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16" t="s">
+    <row r="14" spans="1:10" s="29" customFormat="1" ht="45">
+      <c r="B14" s="30">
+        <v>11</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="30">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="17" customFormat="1" ht="30">
+      <c r="B15" s="21">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="21">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="30">
+      <c r="B16" s="30">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="30">
+        <v>8</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="17" customFormat="1">
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="29" customFormat="1">
+      <c r="B18" s="30">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="17" customFormat="1">
+      <c r="B19" s="21">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="29" customFormat="1">
+      <c r="B20" s="30">
+        <v>17</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="17" customFormat="1">
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="29" customFormat="1">
+      <c r="B22" s="30">
+        <v>19</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="30">
+        <v>4</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="17" customFormat="1">
+      <c r="B23" s="21">
+        <v>20</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="29" customFormat="1">
+      <c r="B24" s="30">
+        <v>21</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="30">
+        <v>2</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="17" customFormat="1">
+      <c r="B25" s="21">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="21">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" s="29" customFormat="1">
+      <c r="B26" s="30">
+        <v>23</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="17" customFormat="1">
+      <c r="B27" s="21">
+        <v>24</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="21">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="29" customFormat="1">
+      <c r="B28" s="30">
+        <v>25</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="30">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="17" customFormat="1" ht="30">
+      <c r="B29" s="21">
+        <v>26</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="21">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="18">
+        <v>18689</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="29" customFormat="1">
+      <c r="B30" s="30">
+        <v>27</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="31">
+        <v>19950</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="17" customFormat="1">
+      <c r="B31" s="21">
+        <v>28</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="17">
+        <v>19950</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="29" customFormat="1">
+      <c r="B32" s="30">
+        <v>29</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="29">
+        <v>18677</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="17" customFormat="1">
+      <c r="B33" s="21">
+        <v>30</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="29" customFormat="1">
+      <c r="B34" s="30">
+        <v>31</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="17" customFormat="1">
+      <c r="B35" s="21">
+        <v>32</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="29" customFormat="1">
+      <c r="B36" s="30">
+        <v>33</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1">
-      <c r="B11" s="22">
-        <v>8</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="18">
-        <v>2</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="21">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="15">
-        <v>3</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1">
-      <c r="B13" s="22">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H13" s="18">
-        <v>2</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="21">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="H36" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" ht="30">
-      <c r="B15" s="22">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="18">
-        <v>13</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="21">
-        <v>13</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="15">
-        <v>2</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="60">
-      <c r="B17" s="22">
-        <v>14</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="18">
-        <v>25</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="21">
-        <v>15</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="15">
-        <v>4</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="18" customFormat="1" ht="30">
-      <c r="B19" s="22">
-        <v>16</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="18">
-        <v>8</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="21">
-        <v>17</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="18" customFormat="1" ht="45">
-      <c r="B21" s="22">
-        <v>18</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="18">
-        <v>17</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="21">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="15">
-        <v>5</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="18" customFormat="1">
-      <c r="B23" s="22">
-        <v>20</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="18">
-        <v>6</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="21">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="15">
-        <v>2</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="18" customFormat="1">
-      <c r="B25" s="22">
-        <v>22</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="18">
-        <v>2</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="21">
-        <v>23</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="18" customFormat="1" ht="45">
-      <c r="B27" s="22">
-        <v>24</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="18">
-        <v>18</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="21">
-        <v>25</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" s="18" customFormat="1" ht="30">
-      <c r="B29" s="22">
-        <v>26</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="19">
-        <v>18689</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="18">
-        <v>6</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="21">
-        <v>27</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="16">
-        <v>19950</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" s="18" customFormat="1">
-      <c r="B31" s="22">
-        <v>28</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="18">
-        <v>19950</v>
-      </c>
-      <c r="H31" s="18">
-        <v>1</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="21">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="15">
-        <v>18677</v>
-      </c>
-      <c r="H32" s="15">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" s="18" customFormat="1">
-      <c r="B33" s="22">
-        <v>30</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="18">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="21">
-        <v>31</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="15">
-        <v>1</v>
-      </c>
-      <c r="I34" s="15" t="s">
+      <c r="I36" s="29" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="18" customFormat="1">
-      <c r="B35" s="22">
-        <v>32</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="22">
-        <v>33</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="15">
-        <v>1</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>187</v>
-      </c>
+    <row r="37" spans="2:9" s="29" customFormat="1">
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="15">
-        <f>SUM(H5:H32)</f>
+      <c r="B38" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="20">
+        <f>SUM(D6:D32)</f>
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1"/>
-    <hyperlink ref="E28:E30" r:id="rId2" display="Panasonic Electronic Components"/>
-    <hyperlink ref="E25" r:id="rId3"/>
-    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="F26" r:id="rId1"/>
+    <hyperlink ref="F28:F30" r:id="rId2" display="Panasonic Electronic Components"/>
+    <hyperlink ref="F25" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="63" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="53" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -5369,60 +5420,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5435,33 +5486,33 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5474,30 +5525,30 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5510,30 +5561,30 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5546,30 +5597,30 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5582,30 +5633,30 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5618,27 +5669,27 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5651,30 +5702,30 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
         <v>253</v>
-      </c>
-      <c r="F9" t="s">
-        <v>254</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5687,30 +5738,30 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5723,30 +5774,30 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5759,30 +5810,30 @@
         <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -5795,66 +5846,66 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>197</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>26</v>
@@ -5867,30 +5918,30 @@
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -5903,30 +5954,30 @@
         <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -5939,27 +5990,27 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5972,30 +6023,30 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -6008,30 +6059,30 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -6044,30 +6095,30 @@
         <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
         <v>156</v>
       </c>
-      <c r="E20" t="s">
-        <v>157</v>
-      </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6080,27 +6131,27 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6113,27 +6164,27 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6146,27 +6197,27 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -6179,30 +6230,30 @@
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
         <v>160</v>
       </c>
-      <c r="E24" t="s">
-        <v>161</v>
-      </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -6215,102 +6266,102 @@
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="M25" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="M26" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6323,30 +6374,30 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -6359,27 +6410,27 @@
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -6392,10 +6443,10 @@
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="273">
   <si>
     <t>Reference</t>
   </si>
@@ -875,6 +875,15 @@
   </si>
   <si>
     <t>VSOP8</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Microchip-Technology/24AA256-I-SN/?qs=sGAEpiMZZMuVhdAcoizlRbwEyZ%252bZRHI58GqgwuNvwSM%3d</t>
+  </si>
+  <si>
+    <t>Check orientation! Anode mark is toward ADS1299!</t>
+  </si>
+  <si>
+    <t>Check orientation! Cathode mark is away from ADS1299!</t>
   </si>
 </sst>
 </file>
@@ -1624,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1834,7 +1843,9 @@
       <c r="K5" t="s">
         <v>257</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
@@ -1997,7 +2008,7 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
         <v>164</v>
@@ -2107,7 +2118,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2146,7 +2157,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2184,8 +2195,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" ht="30">
+      <c r="A15" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2376,8 +2387,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" ht="30">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3025,9 +3036,10 @@
     <hyperlink ref="M25" r:id="rId26"/>
     <hyperlink ref="M34" r:id="rId27"/>
     <hyperlink ref="M14" r:id="rId28"/>
+    <hyperlink ref="M4" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="72" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -4469,8 +4481,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4873,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="17" customFormat="1">
+    <row r="17" spans="2:10" s="17" customFormat="1">
       <c r="B17" s="21">
         <v>14</v>
       </c>
@@ -4899,7 +4911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="29" customFormat="1">
+    <row r="18" spans="2:10" s="29" customFormat="1">
       <c r="B18" s="30">
         <v>15</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="17" customFormat="1">
+    <row r="19" spans="2:10" s="17" customFormat="1">
       <c r="B19" s="21">
         <v>16</v>
       </c>
@@ -4951,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="29" customFormat="1">
+    <row r="20" spans="2:10" s="29" customFormat="1">
       <c r="B20" s="30">
         <v>17</v>
       </c>
@@ -4976,8 +4988,11 @@
       <c r="I20" s="29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" s="17" customFormat="1">
+      <c r="J20" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="17" customFormat="1">
       <c r="B21" s="21">
         <v>18</v>
       </c>
@@ -5003,7 +5018,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="29" customFormat="1">
+    <row r="22" spans="2:10" s="29" customFormat="1">
       <c r="B22" s="30">
         <v>19</v>
       </c>
@@ -5029,7 +5044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="17" customFormat="1">
+    <row r="23" spans="2:10" s="17" customFormat="1">
       <c r="B23" s="21">
         <v>20</v>
       </c>
@@ -5054,8 +5069,11 @@
       <c r="I23" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" s="29" customFormat="1">
+      <c r="J23" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="29" customFormat="1">
       <c r="B24" s="30">
         <v>21</v>
       </c>
@@ -5081,7 +5099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="17" customFormat="1">
+    <row r="25" spans="2:10" s="17" customFormat="1">
       <c r="B25" s="21">
         <v>22</v>
       </c>
@@ -5107,7 +5125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="29" customFormat="1">
+    <row r="26" spans="2:10" s="29" customFormat="1">
       <c r="B26" s="30">
         <v>23</v>
       </c>
@@ -5133,7 +5151,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="17" customFormat="1">
+    <row r="27" spans="2:10" s="17" customFormat="1">
       <c r="B27" s="21">
         <v>24</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="29" customFormat="1">
+    <row r="28" spans="2:10" s="29" customFormat="1">
       <c r="B28" s="30">
         <v>25</v>
       </c>
@@ -5181,7 +5199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="17" customFormat="1" ht="30">
+    <row r="29" spans="2:10" s="17" customFormat="1" ht="30">
       <c r="B29" s="21">
         <v>26</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="29" customFormat="1">
+    <row r="30" spans="2:10" s="29" customFormat="1">
       <c r="B30" s="30">
         <v>27</v>
       </c>
@@ -5225,7 +5243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="17" customFormat="1">
+    <row r="31" spans="2:10" s="17" customFormat="1">
       <c r="B31" s="21">
         <v>28</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="29" customFormat="1">
+    <row r="32" spans="2:10" s="29" customFormat="1">
       <c r="B32" s="30">
         <v>29</v>
       </c>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="274">
   <si>
     <t>Reference</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Check orientation! Cathode mark is away from ADS1299!</t>
+  </si>
+  <si>
+    <t>TSSOP20</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1636,8 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1970,6 +1973,9 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>164</v>
@@ -4481,8 +4487,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4707,12 +4713,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="F10" s="31" t="s">
         <v>164</v>
       </c>

--- a/cam/hackeeg-shield.xlsx
+++ b/cam/hackeeg-shield.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="273">
   <si>
     <t>Reference</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>OPA376AIDBVT</t>
-  </si>
-  <si>
-    <t>TXS0102DCTR</t>
   </si>
   <si>
     <t>S3B-PH-K-S(LF)(SN)</t>
@@ -1658,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>69</v>
@@ -1673,7 +1670,7 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
         <v>128</v>
@@ -1685,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L1" t="s">
         <v>62</v>
@@ -1696,7 +1693,7 @@
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>126</v>
@@ -1727,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>52</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>126</v>
@@ -1747,10 +1744,10 @@
         <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1766,10 +1763,10 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1805,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>83</v>
@@ -1819,7 +1816,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>144</v>
@@ -1844,10 +1841,10 @@
         <v>106</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1858,10 +1855,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>148</v>
@@ -1883,7 +1880,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>108</v>
@@ -1897,10 +1894,10 @@
         <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>145</v>
@@ -1922,7 +1919,7 @@
         <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>102</v>
@@ -1936,10 +1933,10 @@
         <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>146</v>
@@ -1961,7 +1958,7 @@
         <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>104</v>
@@ -1969,19 +1966,19 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>113</v>
@@ -2000,7 +1997,7 @@
         <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>114</v>
@@ -2014,16 +2011,16 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" t="s">
-        <v>253</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2036,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" t="s">
-        <v>260</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2053,10 +2050,10 @@
         <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>149</v>
@@ -2078,7 +2075,7 @@
         <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>110</v>
@@ -2092,13 +2089,13 @@
         <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>99</v>
@@ -2114,10 +2111,10 @@
         <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>100</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>126</v>
@@ -2156,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>58</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>126</v>
@@ -2176,10 +2173,10 @@
         <v>138</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2192,18 +2189,18 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30">
       <c r="A15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>126</v>
@@ -2234,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>56</v>
@@ -2248,16 +2245,16 @@
         <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2273,15 +2270,15 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>126</v>
@@ -2312,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>54</v>
@@ -2326,10 +2323,10 @@
         <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>85</v>
@@ -2345,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -2387,7 +2384,7 @@
         <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>80</v>
@@ -2426,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L20" t="s">
         <v>74</v>
@@ -2440,13 +2437,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
         <v>155</v>
-      </c>
-      <c r="E21" t="s">
-        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2465,7 +2462,7 @@
         <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>120</v>
@@ -2476,13 +2473,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
         <v>119</v>
@@ -2498,10 +2495,10 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>118</v>
@@ -2512,16 +2509,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2534,13 +2531,13 @@
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2548,16 +2545,16 @@
         <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2573,10 +2570,10 @@
         <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2590,10 +2587,10 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
         <v>159</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
       </c>
       <c r="F25" t="s">
         <v>89</v>
@@ -2612,7 +2609,7 @@
         <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>90</v>
@@ -2629,10 +2626,10 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" t="s">
         <v>93</v>
@@ -2651,7 +2648,7 @@
         <v>31</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>94</v>
@@ -2668,10 +2665,10 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -2690,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>96</v>
@@ -2698,7 +2695,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>126</v>
@@ -2707,13 +2704,13 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2726,13 +2723,13 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="K28" t="s">
-        <v>260</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30">
@@ -2746,10 +2743,10 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2768,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>87</v>
@@ -2779,13 +2776,13 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>116</v>
@@ -2804,7 +2801,7 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>117</v>
@@ -2815,7 +2812,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>64</v>
@@ -2838,7 +2835,7 @@
         <v>86</v>
       </c>
       <c r="K31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>122</v>
@@ -2849,7 +2846,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
@@ -2869,10 +2866,10 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>123</v>
@@ -2880,10 +2877,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
@@ -2902,13 +2899,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="K33" t="s">
-        <v>258</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2916,7 +2913,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>64</v>
@@ -2938,10 +2935,10 @@
         <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2955,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
         <v>97</v>
@@ -2972,7 +2969,7 @@
         <v>39</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
         <v>97</v>
@@ -2989,7 +2986,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s">
         <v>97</v>
@@ -3079,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>69</v>
@@ -3094,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
         <v>128</v>
@@ -3109,7 +3106,7 @@
         <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
@@ -3117,22 +3114,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="J2" t="s">
         <v>265</v>
       </c>
-      <c r="J2" t="s">
-        <v>266</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3338,19 +3335,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" t="s">
         <v>235</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>236</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>237</v>
-      </c>
-      <c r="F4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3435,7 +3432,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3480,7 +3477,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="10">
         <f>B11+B11*B15</f>
@@ -3525,7 +3522,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -3545,7 +3542,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <f>B17+B17*B18</f>
@@ -3622,13 +3619,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="8">
         <v>148</v>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8">
         <v>115</v>
@@ -3644,7 +3641,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9">
         <f>COUNT(BOM!G2:G37)</f>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <f>SUM(BOM!G2:G38)</f>
@@ -3705,7 +3702,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3716,7 +3713,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3727,7 +3724,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -3738,13 +3735,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3760,7 +3757,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3788,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3799,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3810,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3821,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3832,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3843,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3854,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3865,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3876,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3887,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3947,13 +3944,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3964,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3993,7 +3990,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
@@ -4013,10 +4010,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D30" si="0">IF(A3=C3, "equal", "not")</f>
@@ -4145,10 +4142,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -4253,10 +4250,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -4313,10 +4310,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -4382,20 +4379,20 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
         <v>230</v>
-      </c>
-      <c r="G2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -4418,7 +4415,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="12">
         <v>650</v>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4488,7 +4485,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4506,7 +4503,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="13" customFormat="1" ht="23">
       <c r="A1" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="14"/>
@@ -4522,16 +4519,16 @@
     </row>
     <row r="3" spans="1:10" s="22" customFormat="1">
       <c r="A3" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>69</v>
@@ -4563,19 +4560,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1">
@@ -4589,13 +4586,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>112</v>
@@ -4615,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>144</v>
@@ -4641,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>148</v>
@@ -4667,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>145</v>
@@ -4693,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>146</v>
@@ -4713,19 +4710,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" s="30">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>113</v>
@@ -4745,10 +4742,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>149</v>
@@ -4765,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="30">
         <v>26</v>
@@ -4829,10 +4826,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>88</v>
@@ -4846,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="21">
         <v>13</v>
@@ -4872,7 +4869,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="30">
         <v>8</v>
@@ -4907,10 +4904,10 @@
         <v>70</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>89</v>
@@ -4924,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="30">
         <v>3</v>
@@ -4950,7 +4947,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" s="21">
         <v>2</v>
@@ -4962,10 +4959,10 @@
         <v>132</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>5</v>
@@ -4997,7 +4994,7 @@
         <v>82</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="17" customFormat="1">
@@ -5005,7 +5002,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="21">
         <v>2</v>
@@ -5017,13 +5014,13 @@
         <v>138</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="29" customFormat="1">
@@ -5043,7 +5040,7 @@
         <v>134</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="29" t="s">
         <v>98</v>
@@ -5078,7 +5075,7 @@
         <v>77</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="29" customFormat="1">
@@ -5095,10 +5092,10 @@
         <v>70</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H24" s="29" t="s">
         <v>93</v>
@@ -5121,10 +5118,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>95</v>
@@ -5138,7 +5135,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="30">
         <v>1</v>
@@ -5147,16 +5144,16 @@
         <v>70</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H26" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="17" customFormat="1">
@@ -5171,13 +5168,13 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>61</v>
@@ -5198,7 +5195,7 @@
         <v>115</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>116</v>
@@ -5248,7 +5245,7 @@
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="17" customFormat="1">
@@ -5256,7 +5253,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D31" s="21">
         <v>1</v>
@@ -5269,7 +5266,7 @@
         <v>19950</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="29" customFormat="1">
@@ -5305,10 +5302,10 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>121</v>
@@ -5329,16 +5326,16 @@
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>119</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="17" customFormat="1">
@@ -5353,16 +5350,16 @@
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="29" customFormat="1">
@@ -5377,16 +5374,16 @@
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H36" s="31" t="s">
         <v>85</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="29" customFormat="1">
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>69</v>
@@ -5461,7 +5458,7 @@
         <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
         <v>128</v>
@@ -5476,7 +5473,7 @@
         <v>62</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
         <v>51</v>
@@ -5484,7 +5481,7 @@
     </row>
     <row r="2" spans="1:13" ht="45">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>126</v>
@@ -5515,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>52</v>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>126</v>
@@ -5535,10 +5532,10 @@
         <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5554,7 +5551,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5601,10 +5598,10 @@
         <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>148</v>
@@ -5637,10 +5634,10 @@
         <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>145</v>
@@ -5673,10 +5670,10 @@
         <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>146</v>
@@ -5703,16 +5700,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
@@ -5742,16 +5739,16 @@
         <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>253</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5764,10 +5761,10 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
+        <v>249</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5778,10 +5775,10 @@
         <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>149</v>
@@ -5814,13 +5811,13 @@
         <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>99</v>
@@ -5836,7 +5833,7 @@
         <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>100</v>
@@ -5844,7 +5841,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>126</v>
@@ -5880,7 +5877,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>126</v>
@@ -5892,10 +5889,10 @@
         <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -5908,15 +5905,15 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>126</v>
@@ -5958,16 +5955,16 @@
         <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -5983,12 +5980,12 @@
         <v>25</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>126</v>
@@ -6030,13 +6027,13 @@
         <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6049,10 +6046,10 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30">
@@ -6135,13 +6132,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
         <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -6168,13 +6165,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -6190,7 +6187,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>118</v>
@@ -6201,16 +6198,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6223,10 +6220,10 @@
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6234,16 +6231,16 @@
         <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -6259,7 +6256,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6273,10 +6270,10 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" t="s">
         <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
       </c>
       <c r="F24" t="s">
         <v>89</v>
@@ -6309,10 +6306,10 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
         <v>93</v>
@@ -6345,10 +6342,10 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
@@ -6372,7 +6369,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>126</v>
@@ -6381,13 +6378,13 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6400,10 +6397,10 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30">
@@ -6417,10 +6414,10 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
         <v>88</v>
@@ -6447,13 +6444,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>116</v>
